--- a/SNAILS_Artifacts/naturalness_modified_identifiers/SNAILS_schema_crosswalks/NorthernPlainsFireManagement-consolidated-xwalk.xlsx
+++ b/SNAILS_Artifacts/naturalness_modified_identifiers/SNAILS_schema_crosswalks/NorthernPlainsFireManagement-consolidated-xwalk.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>N3_identifier</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>errors</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>N4_identifier</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,12 +506,6 @@
           <t>A_eml</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Author_email</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -559,12 +543,6 @@
           <t>A_Nt</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Accuracy_Notes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,12 +580,6 @@
           <t>A_obs</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Association_observed</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -645,12 +617,6 @@
           <t>A_Org</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Author_organization_nps_unit_code</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -688,12 +654,6 @@
           <t>A_Org_nm</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Author_organization_name</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -731,12 +691,6 @@
           <t>A_Phn</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Author_phone</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -774,12 +728,6 @@
           <t>Act</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -817,12 +765,6 @@
           <t>Ag</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -860,12 +802,6 @@
           <t>AHor</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>depth_a_horizon</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -903,12 +839,6 @@
           <t>Asp</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,12 +876,6 @@
           <t>Atr</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Author</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -989,12 +913,6 @@
           <t>B_ID</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Bug_ID</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1032,12 +950,6 @@
           <t>BPE</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Backup_prompt_exit</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1075,12 +987,6 @@
           <t>BPS</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Backup_prompt_startup</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1118,12 +1024,6 @@
           <t>C_Mem</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Crew_Members</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1161,12 +1061,6 @@
           <t>CanPos</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>canopy_position</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1204,12 +1098,6 @@
           <t>CanPos_Num</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CanopyPositionNumber</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1247,12 +1135,6 @@
           <t>CBE</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>compact_backend_exit</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1290,12 +1172,6 @@
           <t>CC_Txt</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>CoverClass_Text</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1333,12 +1209,6 @@
           <t>CCN</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CoverClass_Number</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1376,12 +1246,6 @@
           <t>CmNm</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>CommonName</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1419,12 +1283,6 @@
           <t>Cnd</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1462,12 +1320,6 @@
           <t>CnP</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>lookup_Canopy_Position</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1505,12 +1357,6 @@
           <t>CNum</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>condition_number</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1548,12 +1394,6 @@
           <t>CPN</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>CanopyPositionName</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1591,12 +1431,6 @@
           <t>CrdUnts</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>coordinate_units</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1634,12 +1468,6 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>coordinate_system</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1677,12 +1505,6 @@
           <t>CTxt</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>condition_text</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1720,12 +1542,6 @@
           <t>Cty</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1763,12 +1579,6 @@
           <t>CvCl</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>lookup_Cover_Class</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1806,12 +1616,6 @@
           <t>Cvr</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Cover</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1849,12 +1653,6 @@
           <t>D_ID</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Data_ID</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1892,12 +1690,6 @@
           <t>DB_Ttl</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Database_title</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1935,12 +1727,6 @@
           <t>DBH</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>DiameterBreastHeight</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1978,12 +1764,6 @@
           <t>DClass1</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>DiameterClass1</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2021,12 +1801,6 @@
           <t>DClass2</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>DiameterClass2</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2064,12 +1838,6 @@
           <t>DClass3</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>DiameterClass3</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2107,12 +1875,6 @@
           <t>DClass4</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>DiameterClass4</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2150,12 +1912,6 @@
           <t>DcStgDescr</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>decay_stage_description</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2193,12 +1949,6 @@
           <t>Dcy</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Decay</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2236,12 +1986,6 @@
           <t>DcyStg</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>lookup_DecayStage</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2279,12 +2023,6 @@
           <t>def</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2322,12 +2060,6 @@
           <t>DgId</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>diagram_id</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2365,12 +2097,6 @@
           <t>Dir</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Directions</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2408,12 +2134,6 @@
           <t>Dm</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2451,12 +2171,6 @@
           <t>Dns</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2494,12 +2208,6 @@
           <t>DS_ID</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>DecayStage_ID</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2537,12 +2245,6 @@
           <t>DWood</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Deadwood</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2580,12 +2282,6 @@
           <t>E_Dt</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Event_Date</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2623,12 +2319,6 @@
           <t>E_ID</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Event_ID</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2666,12 +2356,6 @@
           <t>E_Nt</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ecological_notes</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2709,12 +2393,6 @@
           <t>E_Nts</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Event_Notes</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2752,12 +2430,6 @@
           <t>Elv</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Elevation</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2795,12 +2467,6 @@
           <t>Est_H_Error</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>estimated_horizontal_error</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2838,12 +2504,6 @@
           <t>Evs</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Events</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2881,12 +2541,6 @@
           <t>F</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2924,12 +2578,6 @@
           <t>Fnd_by</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Found_by</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2967,12 +2615,6 @@
           <t>Fx_by</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Fixed_by</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3010,12 +2652,6 @@
           <t>F_Det</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Fix_details</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3053,12 +2689,6 @@
           <t>F_dt</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Fix_date</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3096,12 +2726,6 @@
           <t>F_nm</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>File_name</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3139,12 +2763,6 @@
           <t>GLocID</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>geographic_information_system_location_id</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3182,12 +2800,6 @@
           <t>gns</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>genus</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3225,12 +2837,6 @@
           <t>Hg</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Hogs</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3268,12 +2874,6 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3311,12 +2911,6 @@
           <t>L_Dp</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Litter_depth</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3354,12 +2948,6 @@
           <t>L_ID</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Location_ID</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3397,12 +2985,6 @@
           <t>L_Nt</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>location_notes</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3440,12 +3022,6 @@
           <t>Lgg</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Logging</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3483,12 +3059,6 @@
           <t>Lk_Fp</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Link_file_path</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3526,12 +3096,6 @@
           <t>Ln</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3569,12 +3133,6 @@
           <t>Locs</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Locations</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3612,12 +3170,6 @@
           <t>LstNm</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>ListedName</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3655,12 +3207,6 @@
           <t>LvDd</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Live_Dead</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3698,12 +3244,6 @@
           <t>Lyr</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Layer</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3741,12 +3281,6 @@
           <t>Md_N</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>lookup_Module_Number</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3784,12 +3318,6 @@
           <t>Mdl</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3827,12 +3355,6 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>module_number</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3870,12 +3392,6 @@
           <t>MPD</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>MidpointDiameter</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3913,12 +3429,6 @@
           <t>N_ID</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Nest_ID</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3956,12 +3466,6 @@
           <t>nm</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3999,12 +3503,6 @@
           <t>Nsts</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Nests</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4042,12 +3540,6 @@
           <t>Nt</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4085,12 +3577,6 @@
           <t>O_Dist</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Other_Disturbance</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4128,12 +3614,6 @@
           <t>O_ID</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Overstory_ID</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4171,12 +3651,6 @@
           <t>O_Plt</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>OldPlot</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4214,12 +3688,6 @@
           <t>Ovrstry</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Overstory</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4257,12 +3725,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Plot</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4300,12 +3762,6 @@
           <t>P_Az</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Plot_Azimuth</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4343,12 +3799,6 @@
           <t>P_Btl</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Pine_beetle</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4386,12 +3836,6 @@
           <t>P_Fst</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Presence_First</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4429,12 +3873,6 @@
           <t>Pl_ID</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Plot_ID</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4472,12 +3910,6 @@
           <t>pr_id</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>principal_id</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4515,12 +3947,6 @@
           <t>P_Sec</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Presence_Second</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4558,12 +3984,6 @@
           <t>Pjt</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4601,12 +4021,6 @@
           <t>Pk</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4644,12 +4058,6 @@
           <t>PlNm</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>PlaceNames</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4687,12 +4095,6 @@
           <t>PlSpc</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>lookup_PlantSpecies_list</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4730,12 +4132,6 @@
           <t>PNID</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>PlaceNameID</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4773,12 +4169,6 @@
           <t>PNum</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>presence_number</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4816,12 +4206,6 @@
           <t>Prs</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>lookup_presence_number</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4859,12 +4243,6 @@
           <t>PTxt</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>presence_description</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4902,12 +4280,6 @@
           <t>QN</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>USGS_Quadrant_Name</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4945,12 +4317,6 @@
           <t>R_by</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Reported_by</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4988,12 +4354,6 @@
           <t>R_det</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Report_details</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5031,12 +4391,6 @@
           <t>R_Dt</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Release_date</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5074,12 +4428,6 @@
           <t>R_ID</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Release_ID</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5117,12 +4465,6 @@
           <t>R_Notes</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Release_notes</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5160,12 +4502,6 @@
           <t>R1</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>presence_class_species_R1</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5203,12 +4539,6 @@
           <t>R1ROP</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>lookup_R1_RestOfPlot</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5246,12 +4576,6 @@
           <t>R2</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>CoverClass_R2</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5289,12 +4613,6 @@
           <t>Rd_Trl</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>lookup_roads_and_trails</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5332,12 +4650,6 @@
           <t>Rls_by</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Release_by</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5375,12 +4687,6 @@
           <t>Rpt_dt</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Report_date</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5418,12 +4724,6 @@
           <t>s_dgm</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>sysdiagrams</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5461,12 +4761,6 @@
           <t>Sdl_ID</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Seedlings_ID</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5504,12 +4798,6 @@
           <t>S_ID</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Saplings_ID</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5547,12 +4835,6 @@
           <t>S_Notes</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>SpeciesNotes</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5590,12 +4872,6 @@
           <t>S_Shp</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Slope_shape</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5633,12 +4909,6 @@
           <t>S_C</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>species_code</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5676,12 +4946,6 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>SpeciesCode</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5719,12 +4983,6 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>SiteDescription</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5762,12 +5020,6 @@
           <t>Sdlg</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Seedlings</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5805,12 +5057,6 @@
           <t>sg</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>subgenus</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5848,12 +5094,6 @@
           <t>Shp</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5891,12 +5131,6 @@
           <t>Slp</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Slope</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5934,12 +5168,6 @@
           <t>Slp_Shp</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>lookup_Slope_Shape</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5977,12 +5205,6 @@
           <t>spcs</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6020,12 +5242,6 @@
           <t>Spl</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Saplings</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6063,12 +5279,6 @@
           <t>SSMA_TimeStamp</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>SSMA_TimeStamp</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6106,12 +5316,6 @@
           <t>sspcs</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>subspecies</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6149,12 +5353,6 @@
           <t>St</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6192,12 +5390,6 @@
           <t>TAD</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>application_defaults</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6235,12 +5427,6 @@
           <t>TAR</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>application_application_release_history</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6278,12 +5464,6 @@
           <t>TBR</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>application_bug_reports</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6321,12 +5501,6 @@
           <t>TC_Text</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>tree_condition_description</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6364,12 +5538,6 @@
           <t>TCN</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>tree_condition_number</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6407,12 +5575,6 @@
           <t>Tg</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Tag</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6450,12 +5612,6 @@
           <t>Top_Pos</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>lookup_topographic_position</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6493,12 +5649,6 @@
           <t>Tp_Pos</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>topographic_position</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6536,12 +5686,6 @@
           <t>TpPos</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>topographicPosition</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6579,12 +5723,6 @@
           <t>Tr</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Trail</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6622,12 +5760,6 @@
           <t>Tr_Cn</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>lookup_tree_condition</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6665,12 +5797,6 @@
           <t>TrCond</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Tree_Condition</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6708,12 +5834,6 @@
           <t>TrTg</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Tree_Tags</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6751,12 +5871,6 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>TreeTag</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6794,12 +5908,6 @@
           <t>TTID</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>tree_tag_identifier</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6837,12 +5945,6 @@
           <t>U_Cd</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Unit_Code</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6880,12 +5982,6 @@
           <t>U_Date</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Updated_Date</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6923,12 +6019,6 @@
           <t>U_nm</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>User_name</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6966,12 +6056,6 @@
           <t>UTM_Zn</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>universal_transverse_mercator_zone</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7009,12 +6093,6 @@
           <t>utmE</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>universal_transverse_mercator_easting</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7052,12 +6130,6 @@
           <t>utmN</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>universal_transverse_mercator_northing</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7095,12 +6167,6 @@
           <t>V_Nm</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>ValidName</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7138,12 +6204,6 @@
           <t>V_Num</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Version_number</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7181,12 +6241,6 @@
           <t>VLS</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Verify_links_startup</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7224,12 +6278,6 @@
           <t>vsn</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7267,12 +6315,6 @@
           <t>W_Az</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Witness_Azimuth</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7310,12 +6352,6 @@
           <t>W_Stk</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>Witness_stake</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7353,12 +6389,6 @@
           <t>WdStm</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>Windstorm</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7396,12 +6426,6 @@
           <t>Witness_DBH</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>witness_tree_diameter_breast_height</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7439,12 +6463,6 @@
           <t>WitSpCd</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Witnesstree_species_code</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7482,12 +6500,6 @@
           <t>WT_ID</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>WitnessTree_ID</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7525,12 +6537,6 @@
           <t>WtnsTrs</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>WitnessTrees</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7568,12 +6574,6 @@
           <t>X_c</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>x_coordinate</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7611,12 +6611,6 @@
           <t>Xc</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>xCoordinate</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7654,12 +6648,6 @@
           <t>Y_c</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>y_coordinate</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7697,12 +6685,6 @@
           <t>Y_N</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Yes_No</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7740,12 +6722,6 @@
           <t>Yc</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>YCoordinate</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7781,12 +6757,6 @@
       <c r="G171" t="inlineStr">
         <is>
           <t>YN</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>lookup_yes_no</t>
         </is>
       </c>
     </row>
